--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>caseId</t>
   </si>
@@ -110,10 +110,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"8cf38f15-4829-4936-9d9b-57b7a71ce509","scope":"token","token_type":"bearer","expires_in":5883}}</t>
-  </si>
-  <si>
-    <t>0.069868</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"0a5946bf-ae2c-4063-97a8-41d1fadf939d","scope":"token","token_type":"bearer","expires_in":6151}}</t>
+  </si>
+  <si>
+    <t>0.073382</t>
   </si>
   <si>
     <t>pass</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.083817</t>
+    <t>0.085836</t>
   </si>
   <si>
     <t>c04</t>
@@ -161,7 +161,34 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.074728</t>
+    <t>0.070657</t>
+  </si>
+  <si>
+    <t>c05</t>
+  </si>
+  <si>
+    <t>上传公章文件</t>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/file/upload</t>
+  </si>
+  <si>
+    <t>{"file_type": "impression", "file_name": "测试公章", "user_id": "00788730734155812864"}</t>
+  </si>
+  <si>
+    <t>{"token":"${token}"}</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"44a1d4a1451e708f2e51cf987a3688c9"}}</t>
+  </si>
+  <si>
+    <t>0.120699</t>
   </si>
 </sst>
 </file>
@@ -497,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +727,6 @@
       <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s"/>
       <c r="L5" t="s">
         <v>48</v>
       </c>
@@ -708,6 +734,48 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>caseId</t>
   </si>
@@ -110,10 +110,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"0a5946bf-ae2c-4063-97a8-41d1fadf939d","scope":"token","token_type":"bearer","expires_in":6151}}</t>
-  </si>
-  <si>
-    <t>0.073382</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"36b58b3f-3101-4665-a26b-bb272a51d738","scope":"token","token_type":"bearer","expires_in":2054}}</t>
+  </si>
+  <si>
+    <t>0.067046</t>
   </si>
   <si>
     <t>pass</t>
@@ -134,7 +134,7 @@
     <t>http://192.168.1.206:9000/api/v1/user/company/userinfo</t>
   </si>
   <si>
-    <t>{"Content-Type":"application/json","sign":"BF580E9CC1EC694BDC1936D92450C163","token":"${token}"}</t>
+    <t>{"Content-Type":"application/json","sign":"${sign}","token":"${token}"}</t>
   </si>
   <si>
     <t>{"user_id": "10788733057439518720"}</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.085836</t>
+    <t>0.07833</t>
   </si>
   <si>
     <t>c04</t>
@@ -161,19 +161,19 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.070657</t>
+    <t>0.072201</t>
   </si>
   <si>
     <t>c05</t>
   </si>
   <si>
-    <t>上传公章文件</t>
+    <t>上传公章文件-正常</t>
   </si>
   <si>
     <t>http://192.168.1.206:9000/api/v1/file/upload</t>
   </si>
   <si>
-    <t>{"file_type": "impression", "file_name": "测试公章", "user_id": "00788730734155812864"}</t>
+    <t>{"file_type": "impression", "file_name": "测试公章", "user_id": "10788733057439518720"}</t>
   </si>
   <si>
     <t>{"token":"${token}"}</t>
@@ -185,10 +185,59 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"44a1d4a1451e708f2e51cf987a3688c9"}}</t>
-  </si>
-  <si>
-    <t>0.120699</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"69ed730fe6f0c354875aaec3c201815e"}}</t>
+  </si>
+  <si>
+    <t>0.137317</t>
+  </si>
+  <si>
+    <t>{"seal_file_id":"file_id"}</t>
+  </si>
+  <si>
+    <t>c06</t>
+  </si>
+  <si>
+    <t>添加公章-正常</t>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/seal/add</t>
+  </si>
+  <si>
+    <t>{
+    "file_id": "${seal_file_id}",
+    "seal_name": "test-gongzhang",
+    "seal_type": "01",
+    "size": "40*40",
+    "user_id": "10788733057439518720",
+    "description": "exer citati onessein nonipsum"
+}</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"2390f47eab2a6b3a0633edb2cd9eccc4"}}</t>
+  </si>
+  <si>
+    <t>0.141878</t>
+  </si>
+  <si>
+    <t>c07</t>
+  </si>
+  <si>
+    <t>下载文件-正常</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/file/download</t>
+  </si>
+  <si>
+    <t>{"fileId":"${seal_file_id}","token":"${token}"}</t>
+  </si>
+  <si>
+    <t>字节流，大小为5621B</t>
+  </si>
+  <si>
+    <t>0.0578</t>
   </si>
 </sst>
 </file>
@@ -524,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +817,6 @@
       <c r="J6" t="s">
         <v>56</v>
       </c>
-      <c r="K6" t="s"/>
       <c r="L6" t="s">
         <v>57</v>
       </c>
@@ -776,6 +824,89 @@
         <v>33</v>
       </c>
       <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -110,10 +110,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"36b58b3f-3101-4665-a26b-bb272a51d738","scope":"token","token_type":"bearer","expires_in":2054}}</t>
-  </si>
-  <si>
-    <t>0.067046</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"e05f1d3e-5372-42b8-9a54-7798bcad18d9","scope":"token","token_type":"bearer","expires_in":3797}}</t>
+  </si>
+  <si>
+    <t>0.072537</t>
   </si>
   <si>
     <t>pass</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.07833</t>
+    <t>0.079376</t>
   </si>
   <si>
     <t>c04</t>
@@ -161,7 +161,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.072201</t>
+    <t>0.06737</t>
   </si>
   <si>
     <t>c05</t>
@@ -185,10 +185,10 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"69ed730fe6f0c354875aaec3c201815e"}}</t>
-  </si>
-  <si>
-    <t>0.137317</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"b3bc8e3f6af294ebdfc8c16f2c8f70ca"}}</t>
+  </si>
+  <si>
+    <t>0.129966</t>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
@@ -213,10 +213,10 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"2390f47eab2a6b3a0633edb2cd9eccc4"}}</t>
-  </si>
-  <si>
-    <t>0.141878</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"8743c914f558c7477bfbeecfb3a45a7b"}}</t>
+  </si>
+  <si>
+    <t>0.104728</t>
   </si>
   <si>
     <t>c07</t>
@@ -237,7 +237,7 @@
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.0578</t>
+    <t>0.071237</t>
   </si>
 </sst>
 </file>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -110,10 +110,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"e05f1d3e-5372-42b8-9a54-7798bcad18d9","scope":"token","token_type":"bearer","expires_in":3797}}</t>
-  </si>
-  <si>
-    <t>0.072537</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"e05f1d3e-5372-42b8-9a54-7798bcad18d9","scope":"token","token_type":"bearer","expires_in":1113}}</t>
+  </si>
+  <si>
+    <t>0.066889</t>
   </si>
   <si>
     <t>pass</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.079376</t>
+    <t>0.18316</t>
   </si>
   <si>
     <t>c04</t>
@@ -161,7 +161,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.06737</t>
+    <t>0.077781</t>
   </si>
   <si>
     <t>c05</t>
@@ -185,10 +185,10 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"b3bc8e3f6af294ebdfc8c16f2c8f70ca"}}</t>
-  </si>
-  <si>
-    <t>0.129966</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"8746e488bf3ae02571cda32d45ecee82"}}</t>
+  </si>
+  <si>
+    <t>0.155909</t>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
@@ -213,10 +213,10 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"8743c914f558c7477bfbeecfb3a45a7b"}}</t>
-  </si>
-  <si>
-    <t>0.104728</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"44a85da35dcc36e65453201df25eb45b"}}</t>
+  </si>
+  <si>
+    <t>0.101774</t>
   </si>
   <si>
     <t>c07</t>
@@ -237,7 +237,7 @@
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.071237</t>
+    <t>0.096477</t>
   </si>
 </sst>
 </file>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -110,10 +110,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"e05f1d3e-5372-42b8-9a54-7798bcad18d9","scope":"token","token_type":"bearer","expires_in":1113}}</t>
-  </si>
-  <si>
-    <t>0.066889</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"1cbc3301-6b64-4659-9cc0-b4d3d39947e8","scope":"token","token_type":"bearer","expires_in":7166}}</t>
+  </si>
+  <si>
+    <t>0.062315</t>
   </si>
   <si>
     <t>pass</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.18316</t>
+    <t>0.06516</t>
   </si>
   <si>
     <t>c04</t>
@@ -161,7 +161,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.077781</t>
+    <t>0.061179</t>
   </si>
   <si>
     <t>c05</t>
@@ -185,10 +185,10 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"8746e488bf3ae02571cda32d45ecee82"}}</t>
-  </si>
-  <si>
-    <t>0.155909</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"2ba2c0d5cc85497d8c67bad230c6d020"}}</t>
+  </si>
+  <si>
+    <t>0.255303</t>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
@@ -213,10 +213,10 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"44a85da35dcc36e65453201df25eb45b"}}</t>
-  </si>
-  <si>
-    <t>0.101774</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"9599bb3c7bc0e066f780522b7c861338"}}</t>
+  </si>
+  <si>
+    <t>0.131832</t>
   </si>
   <si>
     <t>c07</t>
@@ -237,7 +237,7 @@
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.096477</t>
+    <t>0.060156</t>
   </si>
 </sst>
 </file>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>caseId</t>
   </si>
@@ -68,10 +68,16 @@
     <t>c01</t>
   </si>
   <si>
+    <t>获取token</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
-    <t>http://yun.choicesaas.cn/cloud/api/auth/login</t>
+    <t>http://192.168.1.206:9000/api/v1/oauth/token</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json"}</t>
@@ -80,121 +86,97 @@
     <t>json</t>
   </si>
   <si>
-    <t>{"username": "18005410350", "password": "WK123456"}</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>{"accessToken": "accessToken\\\":\\\"(.+?)\\\",","refreshToken": "refreshToken\\\":\\\"(.+?)\\\""}</t>
+    <t>{"app_id":"788730441162706944","app_secret":"vtysJXstynJpIlEudO","grant_type":"client_credentials"}</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"25d4647f-9d4a-4932-b2f8-53ab5c72177c","scope":"token","token_type":"bearer","expires_in":6061}}</t>
+  </si>
+  <si>
+    <t>0.055761</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>{"token":"access_token","time":"expires_in"}</t>
   </si>
   <si>
     <t>c02</t>
   </si>
   <si>
-    <t>获取token</t>
-  </si>
-  <si>
-    <t>http://192.168.1.206:9000/api/v1/oauth/token</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{"app_id":"788730441162706944","app_secret":"vtysJXstynJpIlEudO","grant_type":"client_credentials"}</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"1cbc3301-6b64-4659-9cc0-b4d3d39947e8","scope":"token","token_type":"bearer","expires_in":7166}}</t>
-  </si>
-  <si>
-    <t>0.062315</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>{"token":"access_token","time":"expires_in"}</t>
+    <t>获取企业用户信息-正常</t>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/user/company/userinfo</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","sign":"${sign}","token":"${token}"}</t>
+  </si>
+  <si>
+    <t>{"user_id": "10788733057439518720"}</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
+  </si>
+  <si>
+    <t>0.12262</t>
   </si>
   <si>
     <t>c03</t>
   </si>
   <si>
-    <t>获取企业用户信息-正常</t>
-  </si>
-  <si>
-    <t>http://192.168.1.206:9000/api/v1/user/company/userinfo</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json","sign":"${sign}","token":"${token}"}</t>
-  </si>
-  <si>
-    <t>{"user_id": "10788733057439518720"}</t>
-  </si>
-  <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
-  </si>
-  <si>
-    <t>0.06516</t>
+    <t>获取企业用户信息-用户不存在</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","sign":"2955E5AD79CABA13A16911CF0235B4CD","token":"${token}"}</t>
+  </si>
+  <si>
+    <t>{"user_id": "10788733057439518888"}</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
+  </si>
+  <si>
+    <t>0.061818</t>
   </si>
   <si>
     <t>c04</t>
   </si>
   <si>
-    <t>获取企业用户信息-用户不存在</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json","sign":"2955E5AD79CABA13A16911CF0235B4CD","token":"${token}"}</t>
-  </si>
-  <si>
-    <t>{"user_id": "10788733057439518888"}</t>
-  </si>
-  <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
-  </si>
-  <si>
-    <t>0.061179</t>
+    <t>上传公章文件-正常</t>
+  </si>
+  <si>
+    <t>http://192.168.1.206:9000/api/v1/file/upload</t>
+  </si>
+  <si>
+    <t>{"file_type": "impression", "file_name": "测试公章", "user_id": "10788733057439518720"}</t>
+  </si>
+  <si>
+    <t>{"token":"${token}"}</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
+  </si>
+  <si>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"ff9d109a660e00fe575cf4934bce39de"}}</t>
+  </si>
+  <si>
+    <t>0.384573</t>
+  </si>
+  <si>
+    <t>{"seal_file_id":"file_id"}</t>
   </si>
   <si>
     <t>c05</t>
-  </si>
-  <si>
-    <t>上传公章文件-正常</t>
-  </si>
-  <si>
-    <t>http://192.168.1.206:9000/api/v1/file/upload</t>
-  </si>
-  <si>
-    <t>{"file_type": "impression", "file_name": "测试公章", "user_id": "10788733057439518720"}</t>
-  </si>
-  <si>
-    <t>{"token":"${token}"}</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
-  </si>
-  <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"2ba2c0d5cc85497d8c67bad230c6d020"}}</t>
-  </si>
-  <si>
-    <t>0.255303</t>
-  </si>
-  <si>
-    <t>{"seal_file_id":"file_id"}</t>
-  </si>
-  <si>
-    <t>c06</t>
   </si>
   <si>
     <t>添加公章-正常</t>
@@ -213,13 +195,13 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"9599bb3c7bc0e066f780522b7c861338"}}</t>
-  </si>
-  <si>
-    <t>0.131832</t>
-  </si>
-  <si>
-    <t>c07</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"6be107ca15cdde7cf752cfa3ea82a014"}}</t>
+  </si>
+  <si>
+    <t>0.095301</t>
+  </si>
+  <si>
+    <t>c06</t>
   </si>
   <si>
     <t>下载文件-正常</t>
@@ -237,7 +219,7 @@
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.060156</t>
+    <t>0.046669</t>
   </si>
 </sst>
 </file>
@@ -573,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,102 +617,114 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="O3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -739,10 +733,10 @@
         <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -753,81 +747,81 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
+      <c r="P5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -838,76 +832,35 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -92,10 +92,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"25d4647f-9d4a-4932-b2f8-53ab5c72177c","scope":"token","token_type":"bearer","expires_in":6061}}</t>
-  </si>
-  <si>
-    <t>0.055761</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"d6353b9a-1a65-4415-9ecd-c5a8301090fc","scope":"token","token_type":"bearer","expires_in":4173}}</t>
+  </si>
+  <si>
+    <t>0.047258</t>
   </si>
   <si>
     <t>pass</t>
@@ -125,7 +125,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.12262</t>
+    <t>0.062282</t>
   </si>
   <si>
     <t>c03</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.061818</t>
+    <t>0.053872</t>
   </si>
   <si>
     <t>c04</t>
@@ -167,10 +167,10 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"ff9d109a660e00fe575cf4934bce39de"}}</t>
-  </si>
-  <si>
-    <t>0.384573</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"34f1e8a0e4261aed3d4542b3bd7c3946"}}</t>
+  </si>
+  <si>
+    <t>0.125923</t>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
@@ -195,10 +195,10 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"6be107ca15cdde7cf752cfa3ea82a014"}}</t>
-  </si>
-  <si>
-    <t>0.095301</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"99de5ad502c4559009bef06aa9796e65"}}</t>
+  </si>
+  <si>
+    <t>0.080497</t>
   </si>
   <si>
     <t>c06</t>
@@ -219,7 +219,7 @@
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.046669</t>
+    <t>0.035819</t>
   </si>
 </sst>
 </file>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -92,10 +92,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"d6353b9a-1a65-4415-9ecd-c5a8301090fc","scope":"token","token_type":"bearer","expires_in":4173}}</t>
-  </si>
-  <si>
-    <t>0.047258</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"d6353b9a-1a65-4415-9ecd-c5a8301090fc","scope":"token","token_type":"bearer","expires_in":3537}}</t>
+  </si>
+  <si>
+    <t>0.048564</t>
   </si>
   <si>
     <t>pass</t>
@@ -125,7 +125,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.062282</t>
+    <t>0.053677</t>
   </si>
   <si>
     <t>c03</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.053872</t>
+    <t>0.045189</t>
   </si>
   <si>
     <t>c04</t>
@@ -167,10 +167,10 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"34f1e8a0e4261aed3d4542b3bd7c3946"}}</t>
-  </si>
-  <si>
-    <t>0.125923</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"06aed3a112c90683037bcf8115757c75"}}</t>
+  </si>
+  <si>
+    <t>0.218913</t>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
@@ -195,10 +195,10 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"99de5ad502c4559009bef06aa9796e65"}}</t>
-  </si>
-  <si>
-    <t>0.080497</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"85529811c0ab1cab14032b3a5cd3c3a1"}}</t>
+  </si>
+  <si>
+    <t>0.102409</t>
   </si>
   <si>
     <t>c06</t>
@@ -219,7 +219,7 @@
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.035819</t>
+    <t>0.037185</t>
   </si>
 </sst>
 </file>

--- a/data/case1_report.xlsx
+++ b/data/case1_report.xlsx
@@ -92,10 +92,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"d6353b9a-1a65-4415-9ecd-c5a8301090fc","scope":"token","token_type":"bearer","expires_in":3537}}</t>
-  </si>
-  <si>
-    <t>0.048564</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"access_token":"364054c0-300b-46c2-b74b-3cdf81b8f228","scope":"token","token_type":"bearer","expires_in":7177}}</t>
+  </si>
+  <si>
+    <t>0.058506</t>
   </si>
   <si>
     <t>pass</t>
@@ -125,7 +125,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"company_user_info":{"legal_phone":"15628811989","legal_id_number":"1","agent_name":"测试经办热吧1","agent_id_number":"370911199001010101","agent_email":"","user_name":"测试企业1111","area_code":"130273","agent_phone":"15628811989","unit_type":"02","credi_code":"111111111787878787","user_id":"10788733057439518720","legal_email":"","agent_id_type":"111","legal_name":"测试法人呢","legal_id_type":"113","status":1},"cert_info":{"end_date":"2021.12.16","cert_name":"测试企业1111","id_number":"111111111787878787","is_allow_renewal":false,"cert_id":"8ebc34ff6aec687ef3440ba727fd3be2","sn":"2020121607515975","version":3,"issuer":"ShanDongSM2CA","start_date":"2020.12.16","award_to":"测试企业1111.201216","status":1}}}</t>
   </si>
   <si>
-    <t>0.053677</t>
+    <t>0.125269</t>
   </si>
   <si>
     <t>c03</t>
@@ -143,7 +143,7 @@
     <t>{"return_code":"1000","return_message":"success","result_code":"4102","result_message":"用户不存在"}</t>
   </si>
   <si>
-    <t>0.045189</t>
+    <t>0.055624</t>
   </si>
   <si>
     <t>c04</t>
@@ -167,10 +167,10 @@
     <t>E:\\pyworkspace\\pytest_demo\\data\\files\\公章.png</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"06aed3a112c90683037bcf8115757c75"}}</t>
-  </si>
-  <si>
-    <t>0.218913</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"file_name":"测试公章","file_type":"impression","file_id":"8bd6b5f8d4aeb29e82c5f781f82074fc"}}</t>
+  </si>
+  <si>
+    <t>0.080433</t>
   </si>
   <si>
     <t>{"seal_file_id":"file_id"}</t>
@@ -195,10 +195,10 @@
 }</t>
   </si>
   <si>
-    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"85529811c0ab1cab14032b3a5cd3c3a1"}}</t>
-  </si>
-  <si>
-    <t>0.102409</t>
+    <t>{"return_code":"1000","return_message":"success","result_code":"0","result_message":"处理成功","data":{"seal_id":"5194d906f09baba1ca2fc1570e9cf2f0"}}</t>
+  </si>
+  <si>
+    <t>0.078828</t>
   </si>
   <si>
     <t>c06</t>
@@ -219,7 +219,7 @@
     <t>字节流，大小为5621B</t>
   </si>
   <si>
-    <t>0.037185</t>
+    <t>0.046038</t>
   </si>
 </sst>
 </file>
